--- a/Clash Royale Clan Manager/clash_nasty_backup.xlsx
+++ b/Clash Royale Clan Manager/clash_nasty_backup.xlsx
@@ -8,22 +8,79 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nthomas3\Python\Projects\Clash Royale Clan Manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{349467F0-9FE0-4C82-B460-BE36C95C4285}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1120DE4F-D065-43F2-9786-3921FE09219E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4155" yWindow="4155" windowWidth="21600" windowHeight="11505" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="645" windowWidth="28800" windowHeight="15555" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Summary" sheetId="1" r:id="rId1"/>
-    <sheet name="2021_01_22" sheetId="2" r:id="rId2"/>
-    <sheet name="2021-01-23" sheetId="4" r:id="rId3"/>
+    <sheet name="Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Summary" sheetId="2" r:id="rId2"/>
+    <sheet name="2021-01-23" sheetId="3" r:id="rId3"/>
+    <sheet name="2021-01-24" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="166">
+  <si>
+    <t>Info imported from :</t>
+  </si>
+  <si>
+    <t>pixelcrux.com</t>
+  </si>
+  <si>
+    <t>Clash Nasty Clan Tag:</t>
+  </si>
+  <si>
+    <t>#22UQV98</t>
+  </si>
+  <si>
+    <t>Weekly Data Reset:</t>
+  </si>
+  <si>
+    <t>Sunday 7PM Central (donations, fame, repairs, received..)</t>
+  </si>
+  <si>
+    <t>Rules:</t>
+  </si>
+  <si>
+    <t>No harassment/joking about race, ethnicity, national origin, caste, sexual orientation, gender, gender identity, religious affiliation, age, disability, or serious disease will be tolerated. This is an insta-boot.</t>
+  </si>
+  <si>
+    <t>If going into vacation mode, give a heads up and make sure a leader or co-leader acknowledges</t>
+  </si>
+  <si>
+    <t>Promotion Criteria:</t>
+  </si>
+  <si>
+    <t>Member for &gt; 30 days, and Fame + Repair + Donates highest = elder</t>
+  </si>
+  <si>
+    <t>Member for &gt; 60 days, and Fame + Repair + Donates in top 3 for 2 consecutive weeks = elder</t>
+  </si>
+  <si>
+    <t>Member for &gt; 90 days, and Fame + Repair + Donates in top 5 for 2 consecutive weeks = elder</t>
+  </si>
+  <si>
+    <t>Member for &gt; 120 days = elder</t>
+  </si>
+  <si>
+    <t>Kick Criteria:</t>
+  </si>
+  <si>
+    <t>Offline for &gt; 1 weeks  = insta-boot</t>
+  </si>
+  <si>
+    <t>0 Donates, 0 Receives for &gt; 1 week = insta-boot</t>
+  </si>
+  <si>
+    <t>0 Fame, 0 Repairs for &gt; 1 week  = insta-boot</t>
+  </si>
+  <si>
+    <t>*none of these apply if you are on vacation mode</t>
+  </si>
   <si>
     <t>Rank</t>
   </si>
@@ -37,6 +94,9 @@
     <t>Role</t>
   </si>
   <si>
+    <t>King Lvl</t>
+  </si>
+  <si>
     <t>Trophies</t>
   </si>
   <si>
@@ -52,6 +112,9 @@
     <t>Repairs</t>
   </si>
   <si>
+    <t>Last Seen</t>
+  </si>
+  <si>
     <t>b-nasty</t>
   </si>
   <si>
@@ -61,13 +124,58 @@
     <t>Elder</t>
   </si>
   <si>
+    <t>4h ago</t>
+  </si>
+  <si>
+    <t>Brommin</t>
+  </si>
+  <si>
+    <t>#8JJYLYGQ</t>
+  </si>
+  <si>
+    <t>2h ago</t>
+  </si>
+  <si>
+    <t>Gnasty</t>
+  </si>
+  <si>
+    <t>#2U9Y8RYC</t>
+  </si>
+  <si>
+    <t>Co-leader</t>
+  </si>
+  <si>
+    <t>1h ago</t>
+  </si>
+  <si>
     <t>CB</t>
   </si>
   <si>
     <t>#2G29LL82L</t>
   </si>
   <si>
-    <t>Co-leader</t>
+    <t>58m ago</t>
+  </si>
+  <si>
+    <t>DirtNastyL0w</t>
+  </si>
+  <si>
+    <t>#P0JVJYQV</t>
+  </si>
+  <si>
+    <t>Leader</t>
+  </si>
+  <si>
+    <t>Conrizzle</t>
+  </si>
+  <si>
+    <t>#2LLV0L8YY</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>6h ago</t>
   </si>
   <si>
     <t>danimal9387</t>
@@ -76,58 +184,49 @@
     <t>#29PURCVCU</t>
   </si>
   <si>
-    <t>Gnasty</t>
-  </si>
-  <si>
-    <t>#2U9Y8RYC</t>
-  </si>
-  <si>
-    <t>DirtNastyL0w</t>
-  </si>
-  <si>
-    <t>#P0JVJYQV</t>
-  </si>
-  <si>
-    <t>Leader</t>
-  </si>
-  <si>
-    <t>Conrizzle</t>
-  </si>
-  <si>
-    <t>#2LLV0L8YY</t>
-  </si>
-  <si>
-    <t>Member</t>
-  </si>
-  <si>
-    <t>Brommin</t>
-  </si>
-  <si>
-    <t>#8JJYLYGQ</t>
-  </si>
-  <si>
     <t>HERETIC</t>
   </si>
   <si>
     <t>#9JGL0Y2GR</t>
   </si>
   <si>
+    <t>1d ago</t>
+  </si>
+  <si>
+    <t>[==T4yl0r==]</t>
+  </si>
+  <si>
+    <t>#L98GR9V</t>
+  </si>
+  <si>
     <t>Pricein99</t>
   </si>
   <si>
     <t>#9RJQJ99</t>
   </si>
   <si>
+    <t>The goat</t>
+  </si>
+  <si>
+    <t>#2C088JGGQ</t>
+  </si>
+  <si>
+    <t>HoeyJoey69</t>
+  </si>
+  <si>
+    <t>#8RGQRQRV</t>
+  </si>
+  <si>
+    <t>44m ago</t>
+  </si>
+  <si>
     <t>lambflirta</t>
   </si>
   <si>
     <t>#8JULVVLC</t>
   </si>
   <si>
-    <t>HoeyJoey69</t>
-  </si>
-  <si>
-    <t>#8RGQRQRV</t>
+    <t>8h ago</t>
   </si>
   <si>
     <t>LuXxray</t>
@@ -136,18 +235,6 @@
     <t>#2PV2JGUGC</t>
   </si>
   <si>
-    <t>The goat</t>
-  </si>
-  <si>
-    <t>#2C088JGGQ</t>
-  </si>
-  <si>
-    <t>[==T4yl0r==]</t>
-  </si>
-  <si>
-    <t>#L98GR9V</t>
-  </si>
-  <si>
     <t>b1rdman93</t>
   </si>
   <si>
@@ -160,22 +247,55 @@
     <t>#2R2P8V0QJ</t>
   </si>
   <si>
+    <t>7h ago</t>
+  </si>
+  <si>
+    <t>SuperNaSTy</t>
+  </si>
+  <si>
+    <t>#PY2Q8UC0U</t>
+  </si>
+  <si>
     <t>Johnny</t>
   </si>
   <si>
     <t>#J0Q0UVQ0</t>
   </si>
   <si>
+    <t>15h ago</t>
+  </si>
+  <si>
+    <t>mojo</t>
+  </si>
+  <si>
+    <t>#2J98L0RQY</t>
+  </si>
+  <si>
+    <t>47m ago</t>
+  </si>
+  <si>
+    <t>Anthony</t>
+  </si>
+  <si>
+    <t>#Y2YLQQ8C</t>
+  </si>
+  <si>
+    <t>10h ago</t>
+  </si>
+  <si>
+    <t>heckfu</t>
+  </si>
+  <si>
+    <t>#9CR9J0JU</t>
+  </si>
+  <si>
     <t>Rayind08</t>
   </si>
   <si>
     <t>#QV9C0R9L</t>
   </si>
   <si>
-    <t>Anthony</t>
-  </si>
-  <si>
-    <t>#Y2YLQQ8C</t>
+    <t>12h ago</t>
   </si>
   <si>
     <t>Ice Cube</t>
@@ -184,46 +304,34 @@
     <t>#L2P0PC0Y</t>
   </si>
   <si>
-    <t>SuperNaSTy</t>
-  </si>
-  <si>
-    <t>#PY2Q8UC0U</t>
-  </si>
-  <si>
-    <t>mojo</t>
-  </si>
-  <si>
-    <t>#2J98L0RQY</t>
-  </si>
-  <si>
     <t>astonium13</t>
   </si>
   <si>
     <t>#PJUYQ0RQQ</t>
   </si>
   <si>
-    <t>heckfu</t>
-  </si>
-  <si>
-    <t>#9CR9J0JU</t>
-  </si>
-  <si>
     <t>B.K.H</t>
   </si>
   <si>
     <t>#2Y2YJJ02J</t>
   </si>
   <si>
+    <t>Clash Trash</t>
+  </si>
+  <si>
+    <t>#2VC9C82U</t>
+  </si>
+  <si>
+    <t>3h ago</t>
+  </si>
+  <si>
     <t>Falor</t>
   </si>
   <si>
     <t>#YPU2QJYR</t>
   </si>
   <si>
-    <t>Clash Trash</t>
-  </si>
-  <si>
-    <t>#2VC9C82U</t>
+    <t>6d ago</t>
   </si>
   <si>
     <t>chikaboomboom</t>
@@ -232,6 +340,15 @@
     <t>#VC2V20V</t>
   </si>
   <si>
+    <t>1w ago</t>
+  </si>
+  <si>
+    <t>GREEKFREAK</t>
+  </si>
+  <si>
+    <t>#YQGPJYQC9</t>
+  </si>
+  <si>
     <t>savagecoolgirl</t>
   </si>
   <si>
@@ -244,12 +361,6 @@
     <t>#9Q0GYPCC</t>
   </si>
   <si>
-    <t>GREEKFREAK</t>
-  </si>
-  <si>
-    <t>#YQGPJYQC9</t>
-  </si>
-  <si>
     <t>Deeznuts</t>
   </si>
   <si>
@@ -268,6 +379,9 @@
     <t>#PRC2UJ8QL</t>
   </si>
   <si>
+    <t>2w ago</t>
+  </si>
+  <si>
     <t>PUBG</t>
   </si>
   <si>
@@ -292,18 +406,27 @@
     <t>#PVUUJU8P</t>
   </si>
   <si>
+    <t>1mo ago</t>
+  </si>
+  <si>
     <t>Sharma</t>
   </si>
   <si>
     <t>#2L8V28CYL</t>
   </si>
   <si>
+    <t>3w ago</t>
+  </si>
+  <si>
     <t>Alan</t>
   </si>
   <si>
     <t>#2GYYCY2V</t>
   </si>
   <si>
+    <t>2mo ago</t>
+  </si>
+  <si>
     <t>TheSacko</t>
   </si>
   <si>
@@ -322,6 +445,9 @@
     <t>#2PUJ8VQRC</t>
   </si>
   <si>
+    <t>3mo ago</t>
+  </si>
+  <si>
     <t>Euthimis 8</t>
   </si>
   <si>
@@ -344,6 +470,57 @@
   </si>
   <si>
     <t>#UUV988L</t>
+  </si>
+  <si>
+    <t>8m ago</t>
+  </si>
+  <si>
+    <t>14h ago</t>
+  </si>
+  <si>
+    <t>2m ago</t>
+  </si>
+  <si>
+    <t>5h ago</t>
+  </si>
+  <si>
+    <t>4m ago</t>
+  </si>
+  <si>
+    <t>19h ago</t>
+  </si>
+  <si>
+    <t>18h ago</t>
+  </si>
+  <si>
+    <t>41m ago</t>
+  </si>
+  <si>
+    <t>34m ago</t>
+  </si>
+  <si>
+    <t>11m ago</t>
+  </si>
+  <si>
+    <t>2d ago</t>
+  </si>
+  <si>
+    <t>56m ago</t>
+  </si>
+  <si>
+    <t>13m ago</t>
+  </si>
+  <si>
+    <t>21h ago</t>
+  </si>
+  <si>
+    <t>5m ago</t>
+  </si>
+  <si>
+    <t>MEGAKNIGHT 64</t>
+  </si>
+  <si>
+    <t>#GPRJ0GC02</t>
   </si>
 </sst>
 </file>
@@ -741,60 +918,197 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>3</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>4</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>3</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Schlumberger-Private_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Schlumberger-Private_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J48"/>
+  <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -802,31 +1116,37 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>5503</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>354</v>
+        <v>5475</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>432</v>
       </c>
       <c r="I2">
-        <v>3952</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5408</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -834,31 +1154,37 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3">
-        <v>5454</v>
-      </c>
       <c r="G3">
-        <v>206</v>
+        <v>5475</v>
       </c>
       <c r="H3">
-        <v>240</v>
+        <v>350</v>
       </c>
       <c r="I3">
-        <v>1950</v>
+        <v>120</v>
       </c>
       <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2362</v>
+      </c>
+      <c r="K3">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -866,31 +1192,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="E4" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F4">
-        <v>5428</v>
+        <v>13</v>
       </c>
       <c r="G4">
-        <v>327</v>
+        <v>5456</v>
       </c>
       <c r="H4">
-        <v>480</v>
+        <v>594</v>
       </c>
       <c r="I4">
-        <v>3848</v>
+        <v>395</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3828</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -898,31 +1230,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>5412</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>476</v>
+        <v>5422</v>
       </c>
       <c r="H5">
-        <v>299</v>
+        <v>206</v>
       </c>
       <c r="I5">
-        <v>2588</v>
+        <v>240</v>
       </c>
       <c r="J5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -930,31 +1268,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>46</v>
       </c>
       <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
         <v>5395</v>
       </c>
-      <c r="G6">
-        <v>172</v>
-      </c>
       <c r="H6">
-        <v>240</v>
+        <v>284</v>
       </c>
       <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
         <v>1806</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>598</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -962,31 +1306,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F7">
-        <v>5319</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>507</v>
+        <v>5372</v>
       </c>
       <c r="H7">
-        <v>379</v>
+        <v>561</v>
       </c>
       <c r="I7">
-        <v>2699</v>
+        <v>451</v>
       </c>
       <c r="J7">
+        <v>3737</v>
+      </c>
+      <c r="K7">
         <v>415</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -994,31 +1344,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="F8">
-        <v>5301</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>310</v>
+        <v>5297</v>
       </c>
       <c r="H8">
-        <v>120</v>
+        <v>355</v>
       </c>
       <c r="I8">
-        <v>2362</v>
+        <v>552</v>
       </c>
       <c r="J8">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4680</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1026,31 +1382,37 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
         <v>5215</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>100</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>120</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1440</v>
       </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1058,31 +1420,37 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>29</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>5009</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>223</v>
+        <v>5036</v>
       </c>
       <c r="H10">
-        <v>214</v>
+        <v>188</v>
       </c>
       <c r="I10">
-        <v>1448</v>
+        <v>304</v>
       </c>
       <c r="J10">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1090,31 +1458,37 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
       <c r="F11">
-        <v>4944</v>
+        <v>13</v>
       </c>
       <c r="G11">
-        <v>540</v>
+        <v>4985</v>
       </c>
       <c r="H11">
-        <v>458</v>
+        <v>343</v>
       </c>
       <c r="I11">
-        <v>1380</v>
+        <v>298</v>
       </c>
       <c r="J11">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2692</v>
+      </c>
+      <c r="K11">
+        <v>312</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1122,31 +1496,37 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>4974</v>
+      </c>
+      <c r="H12">
+        <v>333</v>
+      </c>
+      <c r="I12">
+        <v>430</v>
+      </c>
+      <c r="J12">
+        <v>4090</v>
+      </c>
+      <c r="K12">
+        <v>485</v>
+      </c>
+      <c r="L12" t="s">
         <v>33</v>
       </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12">
-        <v>4920</v>
-      </c>
-      <c r="G12">
-        <v>8</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>1532</v>
-      </c>
-      <c r="J12">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1154,31 +1534,37 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F13">
-        <v>4916</v>
+        <v>12</v>
       </c>
       <c r="G13">
-        <v>440</v>
+        <v>4962</v>
       </c>
       <c r="H13">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="I13">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+      <c r="K13">
+        <v>368</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1186,31 +1572,37 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>4897</v>
+        <v>13</v>
       </c>
       <c r="G14">
-        <v>291</v>
+        <v>4950</v>
       </c>
       <c r="H14">
-        <v>350</v>
+        <v>596</v>
       </c>
       <c r="I14">
-        <v>2932</v>
+        <v>498</v>
       </c>
       <c r="J14">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1380</v>
+      </c>
+      <c r="K14">
+        <v>392</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1218,31 +1610,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
         <v>11</v>
       </c>
-      <c r="F15">
-        <v>4890</v>
-      </c>
       <c r="G15">
-        <v>178</v>
+        <v>4916</v>
       </c>
       <c r="H15">
+        <v>440</v>
+      </c>
+      <c r="I15">
         <v>280</v>
       </c>
-      <c r="I15">
-        <v>1022</v>
-      </c>
       <c r="J15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+      <c r="K15">
+        <v>349</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1250,31 +1648,37 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F16">
-        <v>4886</v>
+        <v>13</v>
       </c>
       <c r="G16">
-        <v>164</v>
+        <v>4915</v>
       </c>
       <c r="H16">
-        <v>320</v>
+        <v>184</v>
       </c>
       <c r="I16">
+        <v>360</v>
+      </c>
+      <c r="J16">
         <v>2408</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>280</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1282,31 +1686,37 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>4866</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>152</v>
+        <v>4906</v>
       </c>
       <c r="H17">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1314,31 +1724,37 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>4755</v>
+        <v>12</v>
       </c>
       <c r="G18">
-        <v>161</v>
+        <v>4884</v>
       </c>
       <c r="H18">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="I18">
-        <v>1276</v>
+        <v>280</v>
       </c>
       <c r="J18">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+        <v>857</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1346,31 +1762,37 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>4699</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>4823</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="J19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1276</v>
+      </c>
+      <c r="K19">
+        <v>319</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1378,31 +1800,37 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>4697</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>110</v>
+        <v>4727</v>
       </c>
       <c r="H20">
-        <v>241</v>
+        <v>187</v>
       </c>
       <c r="I20">
-        <v>438</v>
+        <v>200</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1410,31 +1838,37 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>4679</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>26</v>
+        <v>4697</v>
       </c>
       <c r="H21">
-        <v>40</v>
+        <v>131</v>
       </c>
       <c r="I21">
-        <v>1146</v>
+        <v>241</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1442,31 +1876,37 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>4677</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>88</v>
+        <v>4682</v>
       </c>
       <c r="H22">
-        <v>240</v>
+        <v>58</v>
       </c>
       <c r="I22">
-        <v>857</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1474,31 +1914,37 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D23" t="s">
-        <v>56</v>
+        <v>89</v>
       </c>
       <c r="E23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F23">
-        <v>4648</v>
+        <v>11</v>
       </c>
       <c r="G23">
-        <v>163</v>
+        <v>4681</v>
       </c>
       <c r="H23">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>174</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1506,31 +1952,37 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>4635</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>4679</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1538,31 +1990,37 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F25">
-        <v>4624</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>38</v>
+        <v>4664</v>
       </c>
       <c r="H25">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1570,31 +2028,37 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
         <v>4614</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>54</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>240</v>
       </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1602,19 +2066,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>4577</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4611</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1623,10 +2087,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1634,31 +2104,37 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F28">
-        <v>4509</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4577</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1666,20 +2142,20 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
         <v>4473</v>
       </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
       <c r="H29">
         <v>0</v>
       </c>
@@ -1689,8 +2165,14 @@
       <c r="J29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1698,31 +2180,37 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="D30" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F30">
-        <v>4404</v>
+        <v>11</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>4406</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="J30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2606</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1730,19 +2218,19 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F31">
-        <v>4383</v>
+        <v>10</v>
       </c>
       <c r="G31">
-        <v>0</v>
+        <v>4404</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1753,8 +2241,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1762,31 +2256,37 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F32">
-        <v>4376</v>
+        <v>13</v>
       </c>
       <c r="G32">
-        <v>364</v>
+        <v>4383</v>
       </c>
       <c r="H32">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>1652</v>
+        <v>0</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1794,31 +2294,37 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>112</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
         <v>4242</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>86</v>
       </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
       <c r="I33">
         <v>0</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1826,31 +2332,37 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
         <v>4232</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>146</v>
       </c>
-      <c r="H34">
-        <v>160</v>
-      </c>
       <c r="I34">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1858,20 +2370,20 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
         <v>4199</v>
       </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
       <c r="H35">
         <v>0</v>
       </c>
@@ -1881,8 +2393,14 @@
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1890,31 +2408,37 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
         <v>4168</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>53</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>80</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>336</v>
       </c>
-      <c r="J36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1922,20 +2446,20 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>121</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
         <v>4145</v>
       </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
       <c r="H37">
         <v>0</v>
       </c>
@@ -1945,8 +2469,14 @@
       <c r="J37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1954,20 +2484,20 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>124</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
         <v>4109</v>
       </c>
-      <c r="G38">
-        <v>0</v>
-      </c>
       <c r="H38">
         <v>0</v>
       </c>
@@ -1977,8 +2507,14 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1986,20 +2522,20 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>126</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
         <v>4022</v>
       </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
       <c r="H39">
         <v>0</v>
       </c>
@@ -2009,8 +2545,14 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2018,20 +2560,20 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>128</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>129</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
         <v>4021</v>
       </c>
-      <c r="G40">
-        <v>0</v>
-      </c>
       <c r="H40">
         <v>0</v>
       </c>
@@ -2041,8 +2583,14 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2050,20 +2598,20 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
         <v>4014</v>
       </c>
-      <c r="G41">
-        <v>0</v>
-      </c>
       <c r="H41">
         <v>0</v>
       </c>
@@ -2073,8 +2621,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2082,20 +2636,20 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
         <v>4008</v>
       </c>
-      <c r="G42">
-        <v>0</v>
-      </c>
       <c r="H42">
         <v>0</v>
       </c>
@@ -2105,8 +2659,14 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2114,20 +2674,20 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
         <v>4008</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -2137,8 +2697,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2146,20 +2712,20 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
         <v>4006</v>
       </c>
-      <c r="G44">
-        <v>0</v>
-      </c>
       <c r="H44">
         <v>0</v>
       </c>
@@ -2169,8 +2735,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2178,20 +2750,20 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
         <v>4006</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -2201,8 +2773,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2210,20 +2788,20 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>143</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>144</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
         <v>4001</v>
       </c>
-      <c r="G46">
-        <v>0</v>
-      </c>
       <c r="H46">
         <v>0</v>
       </c>
@@ -2233,8 +2811,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2242,20 +2826,20 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>145</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>146</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
         <v>4000</v>
       </c>
-      <c r="G47">
-        <v>0</v>
-      </c>
       <c r="H47">
         <v>0</v>
       </c>
@@ -2265,8 +2849,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2274,111 +2864,1965 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>147</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
         <v>3639</v>
       </c>
-      <c r="G48">
-        <v>274</v>
-      </c>
       <c r="H48">
-        <v>440</v>
+        <v>320</v>
       </c>
       <c r="I48">
+        <v>520</v>
+      </c>
+      <c r="J48">
         <v>2407</v>
       </c>
-      <c r="J48">
+      <c r="K48">
         <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Schlumberger-Private_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Schlumberger-Private_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>5475</v>
+      </c>
+      <c r="H2">
+        <v>432</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>5408</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3">
+        <v>13</v>
+      </c>
+      <c r="G3">
+        <v>5475</v>
+      </c>
+      <c r="H3">
+        <v>350</v>
+      </c>
+      <c r="I3">
+        <v>120</v>
+      </c>
+      <c r="J3">
+        <v>2362</v>
+      </c>
+      <c r="K3">
+        <v>104</v>
+      </c>
+      <c r="L3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+      <c r="G4">
+        <v>5456</v>
+      </c>
+      <c r="H4">
+        <v>594</v>
+      </c>
+      <c r="I4">
+        <v>395</v>
+      </c>
+      <c r="J4">
+        <v>3828</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>5422</v>
+      </c>
+      <c r="H5">
+        <v>206</v>
+      </c>
+      <c r="I5">
+        <v>240</v>
+      </c>
+      <c r="J5">
+        <v>1950</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6">
+        <v>13</v>
+      </c>
+      <c r="G6">
+        <v>5395</v>
+      </c>
+      <c r="H6">
+        <v>284</v>
+      </c>
+      <c r="I6">
+        <v>300</v>
+      </c>
+      <c r="J6">
+        <v>1806</v>
+      </c>
+      <c r="K6">
+        <v>598</v>
+      </c>
+      <c r="L6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7">
+        <v>13</v>
+      </c>
+      <c r="G7">
+        <v>5372</v>
+      </c>
+      <c r="H7">
+        <v>561</v>
+      </c>
+      <c r="I7">
+        <v>451</v>
+      </c>
+      <c r="J7">
+        <v>3737</v>
+      </c>
+      <c r="K7">
+        <v>415</v>
+      </c>
+      <c r="L7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+      <c r="G8">
+        <v>5297</v>
+      </c>
+      <c r="H8">
+        <v>355</v>
+      </c>
+      <c r="I8">
+        <v>552</v>
+      </c>
+      <c r="J8">
+        <v>4680</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9">
+        <v>13</v>
+      </c>
+      <c r="G9">
+        <v>5215</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
+      </c>
+      <c r="I9">
+        <v>120</v>
+      </c>
+      <c r="J9">
+        <v>1440</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
         <v>9</v>
       </c>
+      <c r="C10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10">
+        <v>13</v>
+      </c>
+      <c r="G10">
+        <v>5036</v>
+      </c>
+      <c r="H10">
+        <v>188</v>
+      </c>
+      <c r="I10">
+        <v>304</v>
+      </c>
+      <c r="J10">
+        <v>1438</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
+        <v>4985</v>
+      </c>
+      <c r="H11">
+        <v>343</v>
+      </c>
+      <c r="I11">
+        <v>298</v>
+      </c>
+      <c r="J11">
+        <v>2692</v>
+      </c>
+      <c r="K11">
+        <v>312</v>
+      </c>
+      <c r="L11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>61</v>
+      </c>
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+      <c r="F12">
+        <v>13</v>
+      </c>
+      <c r="G12">
+        <v>4974</v>
+      </c>
+      <c r="H12">
+        <v>333</v>
+      </c>
+      <c r="I12">
+        <v>430</v>
+      </c>
+      <c r="J12">
+        <v>4090</v>
+      </c>
+      <c r="K12">
+        <v>485</v>
+      </c>
+      <c r="L12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13">
+        <v>12</v>
+      </c>
+      <c r="G13">
+        <v>4962</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>1532</v>
+      </c>
+      <c r="K13">
+        <v>368</v>
+      </c>
+      <c r="L13" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>65</v>
+      </c>
+      <c r="D14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14">
+        <v>13</v>
+      </c>
+      <c r="G14">
+        <v>4950</v>
+      </c>
+      <c r="H14">
+        <v>596</v>
+      </c>
+      <c r="I14">
+        <v>498</v>
+      </c>
+      <c r="J14">
+        <v>1380</v>
+      </c>
+      <c r="K14">
+        <v>392</v>
+      </c>
+      <c r="L14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>69</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15">
+        <v>11</v>
+      </c>
+      <c r="G15">
+        <v>4916</v>
+      </c>
+      <c r="H15">
+        <v>440</v>
+      </c>
+      <c r="I15">
+        <v>280</v>
+      </c>
+      <c r="J15">
+        <v>1661</v>
+      </c>
+      <c r="K15">
+        <v>349</v>
+      </c>
+      <c r="L15" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16">
+        <v>13</v>
+      </c>
+      <c r="G16">
+        <v>4915</v>
+      </c>
+      <c r="H16">
+        <v>184</v>
+      </c>
+      <c r="I16">
+        <v>360</v>
+      </c>
+      <c r="J16">
+        <v>2408</v>
+      </c>
+      <c r="K16">
+        <v>280</v>
+      </c>
+      <c r="L16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17">
+        <v>13</v>
+      </c>
+      <c r="G17">
+        <v>4906</v>
+      </c>
+      <c r="H17">
+        <v>162</v>
+      </c>
+      <c r="I17">
+        <v>200</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>76</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>12</v>
+      </c>
+      <c r="G18">
+        <v>4884</v>
+      </c>
+      <c r="H18">
+        <v>98</v>
+      </c>
+      <c r="I18">
+        <v>280</v>
+      </c>
+      <c r="J18">
+        <v>857</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19">
+        <v>11</v>
+      </c>
+      <c r="G19">
+        <v>4823</v>
+      </c>
+      <c r="H19">
+        <v>185</v>
+      </c>
+      <c r="I19">
+        <v>480</v>
+      </c>
+      <c r="J19">
+        <v>1276</v>
+      </c>
+      <c r="K19">
+        <v>319</v>
+      </c>
+      <c r="L19" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D20" t="s">
+        <v>81</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20">
+        <v>11</v>
+      </c>
+      <c r="G20">
+        <v>4727</v>
+      </c>
+      <c r="H20">
+        <v>187</v>
+      </c>
+      <c r="I20">
+        <v>200</v>
+      </c>
+      <c r="J20">
+        <v>174</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21">
+        <v>12</v>
+      </c>
+      <c r="G21">
+        <v>4697</v>
+      </c>
+      <c r="H21">
+        <v>131</v>
+      </c>
+      <c r="I21">
+        <v>241</v>
+      </c>
+      <c r="J21">
+        <v>438</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>86</v>
+      </c>
+      <c r="D22" t="s">
+        <v>87</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+      <c r="F22">
+        <v>12</v>
+      </c>
+      <c r="G22">
+        <v>4682</v>
+      </c>
+      <c r="H22">
+        <v>58</v>
+      </c>
+      <c r="I22">
+        <v>10</v>
+      </c>
+      <c r="J22">
+        <v>496</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>4681</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24" t="s">
+        <v>91</v>
+      </c>
+      <c r="D24" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24">
+        <v>12</v>
+      </c>
+      <c r="G24">
+        <v>4679</v>
+      </c>
+      <c r="H24">
+        <v>26</v>
+      </c>
+      <c r="I24">
+        <v>40</v>
+      </c>
+      <c r="J24">
+        <v>1146</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25">
+        <v>4664</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" t="s">
+        <v>96</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+      <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
+        <v>4614</v>
+      </c>
+      <c r="H26">
+        <v>54</v>
+      </c>
+      <c r="I26">
+        <v>240</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27">
+        <v>12</v>
+      </c>
+      <c r="G27">
+        <v>4611</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>796</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+      <c r="F28">
+        <v>11</v>
+      </c>
+      <c r="G28">
+        <v>4577</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29" t="s">
+        <v>103</v>
+      </c>
+      <c r="D29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E29" t="s">
+        <v>32</v>
+      </c>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>4473</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>106</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30">
+        <v>11</v>
+      </c>
+      <c r="G30">
+        <v>4406</v>
+      </c>
+      <c r="H30">
+        <v>409</v>
+      </c>
+      <c r="I30">
+        <v>50</v>
+      </c>
+      <c r="J30">
+        <v>2606</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
+        <v>4404</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32" t="s">
+        <v>110</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
+        <v>4383</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" t="s">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s">
+        <v>32</v>
+      </c>
+      <c r="F33">
+        <v>12</v>
+      </c>
+      <c r="G33">
+        <v>4242</v>
+      </c>
+      <c r="H33">
+        <v>86</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34" t="s">
+        <v>114</v>
+      </c>
+      <c r="D34" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34">
+        <v>12</v>
+      </c>
+      <c r="G34">
+        <v>4232</v>
+      </c>
+      <c r="H34">
+        <v>146</v>
+      </c>
+      <c r="I34">
+        <v>200</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+      <c r="F35">
+        <v>10</v>
+      </c>
+      <c r="G35">
+        <v>4199</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36" t="s">
+        <v>119</v>
+      </c>
+      <c r="D36" t="s">
+        <v>120</v>
+      </c>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36">
+        <v>11</v>
+      </c>
+      <c r="G36">
+        <v>4168</v>
+      </c>
+      <c r="H36">
+        <v>53</v>
+      </c>
+      <c r="I36">
+        <v>80</v>
+      </c>
+      <c r="J36">
+        <v>336</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E37" t="s">
+        <v>32</v>
+      </c>
+      <c r="F37">
+        <v>12</v>
+      </c>
+      <c r="G37">
+        <v>4145</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>124</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38">
+        <v>10</v>
+      </c>
+      <c r="G38">
+        <v>4109</v>
+      </c>
+      <c r="H38">
+        <v>0</v>
+      </c>
+      <c r="I38">
+        <v>0</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" t="s">
+        <v>32</v>
+      </c>
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>4022</v>
+      </c>
+      <c r="H39">
+        <v>0</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40" t="s">
+        <v>128</v>
+      </c>
+      <c r="D40" t="s">
+        <v>129</v>
+      </c>
+      <c r="E40" t="s">
+        <v>32</v>
+      </c>
+      <c r="F40">
+        <v>12</v>
+      </c>
+      <c r="G40">
+        <v>4021</v>
+      </c>
+      <c r="H40">
+        <v>0</v>
+      </c>
+      <c r="I40">
+        <v>0</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" t="s">
+        <v>132</v>
+      </c>
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+      <c r="F41">
+        <v>11</v>
+      </c>
+      <c r="G41">
+        <v>4014</v>
+      </c>
+      <c r="H41">
+        <v>0</v>
+      </c>
+      <c r="I41">
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <v>0</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" t="s">
+        <v>135</v>
+      </c>
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+      <c r="G42">
+        <v>4008</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F43">
+        <v>10</v>
+      </c>
+      <c r="G43">
+        <v>4008</v>
+      </c>
+      <c r="H43">
+        <v>0</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" t="s">
+        <v>139</v>
+      </c>
+      <c r="E44" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>13</v>
+      </c>
+      <c r="G44">
+        <v>4006</v>
+      </c>
+      <c r="H44">
+        <v>0</v>
+      </c>
+      <c r="I44">
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45" t="s">
+        <v>141</v>
+      </c>
+      <c r="D45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45">
+        <v>10</v>
+      </c>
+      <c r="G45">
+        <v>4006</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>32</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+      <c r="G46">
+        <v>4001</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
+      </c>
+      <c r="I46">
+        <v>0</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>146</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>4000</v>
+      </c>
+      <c r="H47">
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48" t="s">
+        <v>147</v>
+      </c>
+      <c r="D48" t="s">
+        <v>148</v>
+      </c>
+      <c r="E48" t="s">
+        <v>32</v>
+      </c>
+      <c r="F48">
+        <v>13</v>
+      </c>
+      <c r="G48">
+        <v>3639</v>
+      </c>
+      <c r="H48">
+        <v>320</v>
+      </c>
+      <c r="I48">
+        <v>520</v>
+      </c>
+      <c r="J48">
+        <v>2407</v>
+      </c>
+      <c r="K48">
+        <v>369</v>
+      </c>
+      <c r="L48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;11&amp;K000000&amp;"Calibri"&amp;10 &amp;K000000#Schlumberger-Private_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:L49"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>34</v>
+      </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F2">
-        <v>5475</v>
+        <v>13</v>
       </c>
       <c r="G2">
-        <v>422</v>
+        <v>5515</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>380</v>
       </c>
       <c r="I2">
-        <v>5408</v>
+        <v>160</v>
       </c>
       <c r="J2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2362</v>
+      </c>
+      <c r="K2">
+        <v>104</v>
+      </c>
+      <c r="L2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2386,31 +4830,37 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="F3">
-        <v>5456</v>
+        <v>13</v>
       </c>
       <c r="G3">
-        <v>568</v>
+        <v>5507</v>
       </c>
       <c r="H3">
-        <v>375</v>
+        <v>666</v>
       </c>
       <c r="I3">
+        <v>455</v>
+      </c>
+      <c r="J3">
         <v>3828</v>
       </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2418,31 +4868,37 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4">
         <v>13</v>
       </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4">
-        <v>5422</v>
-      </c>
       <c r="G4">
-        <v>206</v>
+        <v>5437</v>
       </c>
       <c r="H4">
-        <v>240</v>
+        <v>516</v>
       </c>
       <c r="I4">
-        <v>1950</v>
+        <v>40</v>
       </c>
       <c r="J4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5408</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2450,31 +4906,37 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="F5">
-        <v>5343</v>
+        <v>13</v>
       </c>
       <c r="G5">
-        <v>561</v>
+        <v>5422</v>
       </c>
       <c r="H5">
-        <v>451</v>
+        <v>206</v>
       </c>
       <c r="I5">
-        <v>3737</v>
+        <v>240</v>
       </c>
       <c r="J5">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1950</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2482,31 +4944,37 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="F6">
-        <v>5336</v>
+        <v>13</v>
       </c>
       <c r="G6">
-        <v>250</v>
+        <v>5401</v>
       </c>
       <c r="H6">
-        <v>280</v>
+        <v>415</v>
       </c>
       <c r="I6">
-        <v>1806</v>
+        <v>600</v>
       </c>
       <c r="J6">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+        <v>5928</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -2514,31 +4982,37 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="F7">
-        <v>5321</v>
+        <v>13</v>
       </c>
       <c r="G7">
-        <v>355</v>
+        <v>5356</v>
       </c>
       <c r="H7">
-        <v>520</v>
+        <v>322</v>
       </c>
       <c r="I7">
-        <v>4680</v>
+        <v>350</v>
       </c>
       <c r="J7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1806</v>
+      </c>
+      <c r="K7">
+        <v>598</v>
+      </c>
+      <c r="L7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -2546,31 +5020,37 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F8">
-        <v>5315</v>
+        <v>13</v>
       </c>
       <c r="G8">
-        <v>330</v>
+        <v>5337</v>
       </c>
       <c r="H8">
-        <v>120</v>
+        <v>599</v>
       </c>
       <c r="I8">
-        <v>2362</v>
+        <v>531</v>
       </c>
       <c r="J8">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4775</v>
+      </c>
+      <c r="K8">
+        <v>415</v>
+      </c>
+      <c r="L8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -2578,31 +5058,37 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F9">
-        <v>5215</v>
+        <v>13</v>
       </c>
       <c r="G9">
-        <v>100</v>
+        <v>5327</v>
       </c>
       <c r="H9">
-        <v>120</v>
+        <v>190</v>
       </c>
       <c r="I9">
-        <v>1440</v>
+        <v>170</v>
       </c>
       <c r="J9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2598</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -2610,31 +5096,37 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
       <c r="D10" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F10">
-        <v>4991</v>
+        <v>13</v>
       </c>
       <c r="G10">
-        <v>323</v>
+        <v>5036</v>
       </c>
       <c r="H10">
-        <v>430</v>
+        <v>188</v>
       </c>
       <c r="I10">
-        <v>2932</v>
+        <v>320</v>
       </c>
       <c r="J10">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1438</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -2642,31 +5134,37 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D11" t="s">
-        <v>30</v>
+        <v>59</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F11">
+        <v>13</v>
+      </c>
+      <c r="G11">
         <v>4985</v>
       </c>
-      <c r="G11">
-        <v>289</v>
-      </c>
       <c r="H11">
-        <v>294</v>
+        <v>343</v>
       </c>
       <c r="I11">
+        <v>334</v>
+      </c>
+      <c r="J11">
         <v>2692</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>312</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -2674,31 +5172,37 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F12">
-        <v>4950</v>
+        <v>13</v>
       </c>
       <c r="G12">
-        <v>596</v>
+        <v>4958</v>
       </c>
       <c r="H12">
-        <v>498</v>
+        <v>666</v>
       </c>
       <c r="I12">
-        <v>1380</v>
+        <v>578</v>
       </c>
       <c r="J12">
+        <v>1584</v>
+      </c>
+      <c r="K12">
         <v>392</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -2706,31 +5210,37 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F13">
-        <v>4925</v>
+        <v>13</v>
       </c>
       <c r="G13">
-        <v>8</v>
+        <v>4944</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="I13">
-        <v>1532</v>
+        <v>400</v>
       </c>
       <c r="J13">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+        <v>2408</v>
+      </c>
+      <c r="K13">
+        <v>280</v>
+      </c>
+      <c r="L13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -2738,31 +5248,37 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="E14" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F14">
-        <v>4916</v>
+        <v>12</v>
       </c>
       <c r="G14">
-        <v>440</v>
+        <v>4940</v>
       </c>
       <c r="H14">
-        <v>280</v>
+        <v>8</v>
       </c>
       <c r="I14">
-        <v>1661</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1532</v>
+      </c>
+      <c r="K14">
+        <v>368</v>
+      </c>
+      <c r="L14" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>13</v>
       </c>
@@ -2770,31 +5286,37 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
       <c r="D15" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F15">
-        <v>4915</v>
+        <v>13</v>
       </c>
       <c r="G15">
-        <v>184</v>
+        <v>4921</v>
       </c>
       <c r="H15">
-        <v>360</v>
+        <v>411</v>
       </c>
       <c r="I15">
-        <v>2408</v>
+        <v>510</v>
       </c>
       <c r="J15">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+        <v>4090</v>
+      </c>
+      <c r="K15">
+        <v>485</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -2802,31 +5324,37 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="E16" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16">
         <v>11</v>
       </c>
-      <c r="F16">
-        <v>4906</v>
-      </c>
       <c r="G16">
-        <v>162</v>
+        <v>4916</v>
       </c>
       <c r="H16">
-        <v>200</v>
+        <v>440</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1661</v>
+      </c>
+      <c r="K16">
+        <v>349</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -2834,31 +5362,37 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="D17" t="s">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F17">
-        <v>4890</v>
+        <v>13</v>
       </c>
       <c r="G17">
-        <v>178</v>
+        <v>4906</v>
       </c>
       <c r="H17">
-        <v>280</v>
+        <v>162</v>
       </c>
       <c r="I17">
-        <v>1022</v>
+        <v>200</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -2866,31 +5400,37 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>76</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F18">
-        <v>4854</v>
+        <v>12</v>
       </c>
       <c r="G18">
+        <v>4884</v>
+      </c>
+      <c r="H18">
         <v>98</v>
       </c>
-      <c r="H18">
-        <v>270</v>
-      </c>
       <c r="I18">
+        <v>280</v>
+      </c>
+      <c r="J18">
         <v>857</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -2898,31 +5438,37 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="D19" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F19">
-        <v>4823</v>
+        <v>11</v>
       </c>
       <c r="G19">
-        <v>185</v>
+        <v>4861</v>
       </c>
       <c r="H19">
-        <v>480</v>
+        <v>329</v>
       </c>
       <c r="I19">
-        <v>1276</v>
+        <v>560</v>
       </c>
       <c r="J19">
+        <v>1914</v>
+      </c>
+      <c r="K19">
         <v>319</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -2930,31 +5476,37 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>80</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F20">
-        <v>4697</v>
+        <v>11</v>
       </c>
       <c r="G20">
-        <v>131</v>
+        <v>4749</v>
       </c>
       <c r="H20">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="I20">
-        <v>438</v>
+        <v>240</v>
       </c>
       <c r="J20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -2962,31 +5514,37 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>47</v>
+        <v>83</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E21" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F21">
-        <v>4681</v>
+        <v>12</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>4697</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>241</v>
       </c>
       <c r="J21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+        <v>438</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -2994,31 +5552,37 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="E22" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F22">
-        <v>4679</v>
+        <v>12</v>
       </c>
       <c r="G22">
-        <v>26</v>
+        <v>4693</v>
       </c>
       <c r="H22">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="I22">
-        <v>1146</v>
+        <v>10</v>
       </c>
       <c r="J22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -3026,31 +5590,37 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23">
+        <v>11</v>
+      </c>
+      <c r="G23">
+        <v>4681</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23" t="s">
         <v>55</v>
       </c>
-      <c r="D23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E23" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23">
-        <v>4662</v>
-      </c>
-      <c r="G23">
-        <v>187</v>
-      </c>
-      <c r="H23">
-        <v>200</v>
-      </c>
-      <c r="I23">
-        <v>174</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -3058,31 +5628,37 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E24" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F24">
-        <v>4652</v>
+        <v>12</v>
       </c>
       <c r="G24">
-        <v>58</v>
+        <v>4679</v>
       </c>
       <c r="H24">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="I24">
-        <v>496</v>
+        <v>40</v>
       </c>
       <c r="J24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+        <v>1146</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -3090,19 +5666,19 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>57</v>
+        <v>93</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E25" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F25">
-        <v>4635</v>
+        <v>10</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>4676</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -3113,8 +5689,14 @@
       <c r="J25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -3122,31 +5704,37 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>61</v>
+        <v>95</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>96</v>
       </c>
       <c r="E26" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F26">
+        <v>10</v>
+      </c>
+      <c r="G26">
         <v>4614</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>54</v>
       </c>
-      <c r="H26">
-        <v>240</v>
-      </c>
       <c r="I26">
-        <v>0</v>
+        <v>280</v>
       </c>
       <c r="J26">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -3154,19 +5742,19 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>63</v>
+        <v>97</v>
       </c>
       <c r="D27" t="s">
-        <v>64</v>
+        <v>98</v>
       </c>
       <c r="E27" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F27">
-        <v>4577</v>
+        <v>12</v>
       </c>
       <c r="G27">
-        <v>0</v>
+        <v>4611</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -3175,10 +5763,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+        <v>796</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -3186,31 +5780,37 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="E28" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F28">
-        <v>4539</v>
+        <v>11</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>4577</v>
       </c>
       <c r="H28">
         <v>0</v>
       </c>
       <c r="I28">
-        <v>796</v>
+        <v>0</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -3218,31 +5818,37 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>67</v>
+        <v>106</v>
       </c>
       <c r="D29" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29">
         <v>11</v>
       </c>
-      <c r="F29">
-        <v>4473</v>
-      </c>
       <c r="G29">
-        <v>0</v>
+        <v>4495</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>3404</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -3250,31 +5856,37 @@
         <v>29</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F30">
-        <v>4406</v>
+        <v>13</v>
       </c>
       <c r="G30">
-        <v>391</v>
+        <v>4473</v>
       </c>
       <c r="H30">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>2606</v>
+        <v>0</v>
       </c>
       <c r="J30">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -3282,20 +5894,20 @@
         <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="D31" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="E31" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F31">
+        <v>10</v>
+      </c>
+      <c r="G31">
         <v>4404</v>
       </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
       <c r="H31">
         <v>0</v>
       </c>
@@ -3305,8 +5917,14 @@
       <c r="J31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>30</v>
       </c>
@@ -3314,20 +5932,20 @@
         <v>31</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="E32" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F32">
+        <v>13</v>
+      </c>
+      <c r="G32">
         <v>4383</v>
       </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
       <c r="H32">
         <v>0</v>
       </c>
@@ -3337,8 +5955,14 @@
       <c r="J32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>31</v>
       </c>
@@ -3346,19 +5970,19 @@
         <v>32</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="D33" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F33">
-        <v>4242</v>
+        <v>10</v>
       </c>
       <c r="G33">
-        <v>86</v>
+        <v>4319</v>
       </c>
       <c r="H33">
         <v>0</v>
@@ -3369,8 +5993,14 @@
       <c r="J33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>32</v>
       </c>
@@ -3378,22 +6008,22 @@
         <v>33</v>
       </c>
       <c r="C34" t="s">
-        <v>77</v>
+        <v>112</v>
       </c>
       <c r="D34" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F34">
-        <v>4232</v>
+        <v>12</v>
       </c>
       <c r="G34">
-        <v>146</v>
+        <v>4242</v>
       </c>
       <c r="H34">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="I34">
         <v>0</v>
@@ -3401,8 +6031,14 @@
       <c r="J34">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -3410,31 +6046,37 @@
         <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>79</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="E35" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F35">
-        <v>4199</v>
+        <v>12</v>
       </c>
       <c r="G35">
-        <v>0</v>
+        <v>4232</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="I35">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>34</v>
       </c>
@@ -3442,31 +6084,37 @@
         <v>35</v>
       </c>
       <c r="C36" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F36">
-        <v>4168</v>
+        <v>10</v>
       </c>
       <c r="G36">
-        <v>53</v>
+        <v>4199</v>
       </c>
       <c r="H36">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>35</v>
       </c>
@@ -3474,31 +6122,37 @@
         <v>36</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>119</v>
       </c>
       <c r="D37" t="s">
-        <v>84</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37">
         <v>11</v>
       </c>
-      <c r="F37">
-        <v>4145</v>
-      </c>
       <c r="G37">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+        <v>336</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>36</v>
       </c>
@@ -3506,19 +6160,19 @@
         <v>37</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>86</v>
+        <v>122</v>
       </c>
       <c r="E38" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F38">
-        <v>4109</v>
+        <v>12</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>4145</v>
       </c>
       <c r="H38">
         <v>0</v>
@@ -3529,8 +6183,14 @@
       <c r="J38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>37</v>
       </c>
@@ -3538,19 +6198,19 @@
         <v>38</v>
       </c>
       <c r="C39" t="s">
-        <v>87</v>
+        <v>123</v>
       </c>
       <c r="D39" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F39">
-        <v>4022</v>
+        <v>10</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>4109</v>
       </c>
       <c r="H39">
         <v>0</v>
@@ -3561,8 +6221,14 @@
       <c r="J39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
@@ -3570,19 +6236,19 @@
         <v>39</v>
       </c>
       <c r="C40" t="s">
-        <v>89</v>
+        <v>125</v>
       </c>
       <c r="D40" t="s">
-        <v>90</v>
+        <v>126</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F40">
-        <v>4021</v>
+        <v>13</v>
       </c>
       <c r="G40">
-        <v>0</v>
+        <v>4022</v>
       </c>
       <c r="H40">
         <v>0</v>
@@ -3593,8 +6259,14 @@
       <c r="J40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>39</v>
       </c>
@@ -3602,19 +6274,19 @@
         <v>40</v>
       </c>
       <c r="C41" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D41" t="s">
-        <v>92</v>
+        <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F41">
-        <v>4014</v>
+        <v>12</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>4021</v>
       </c>
       <c r="H41">
         <v>0</v>
@@ -3625,8 +6297,14 @@
       <c r="J41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>40</v>
       </c>
@@ -3634,19 +6312,19 @@
         <v>41</v>
       </c>
       <c r="C42" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="D42" t="s">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="E42" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F42">
-        <v>4008</v>
+        <v>11</v>
       </c>
       <c r="G42">
-        <v>0</v>
+        <v>4014</v>
       </c>
       <c r="H42">
         <v>0</v>
@@ -3657,8 +6335,14 @@
       <c r="J42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>41</v>
       </c>
@@ -3666,20 +6350,20 @@
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
       <c r="D43" t="s">
-        <v>96</v>
+        <v>135</v>
       </c>
       <c r="E43" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="F43">
+        <v>12</v>
+      </c>
+      <c r="G43">
         <v>4008</v>
       </c>
-      <c r="G43">
-        <v>0</v>
-      </c>
       <c r="H43">
         <v>0</v>
       </c>
@@ -3689,8 +6373,14 @@
       <c r="J43">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42</v>
       </c>
@@ -3698,19 +6388,19 @@
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>97</v>
+        <v>136</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>137</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F44">
-        <v>4006</v>
+        <v>10</v>
       </c>
       <c r="G44">
-        <v>0</v>
+        <v>4008</v>
       </c>
       <c r="H44">
         <v>0</v>
@@ -3721,8 +6411,14 @@
       <c r="J44">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>43</v>
       </c>
@@ -3730,20 +6426,20 @@
         <v>44</v>
       </c>
       <c r="C45" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="E45" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F45">
+        <v>13</v>
+      </c>
+      <c r="G45">
         <v>4006</v>
       </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
       <c r="H45">
         <v>0</v>
       </c>
@@ -3753,8 +6449,14 @@
       <c r="J45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>44</v>
       </c>
@@ -3762,19 +6464,19 @@
         <v>45</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="D46" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F46">
-        <v>4001</v>
+        <v>10</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>4006</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -3785,8 +6487,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45</v>
       </c>
@@ -3794,19 +6502,19 @@
         <v>46</v>
       </c>
       <c r="C47" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="E47" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="F47">
-        <v>4000</v>
+        <v>12</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>4001</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -3817,8 +6525,14 @@
       <c r="J47">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>46</v>
       </c>
@@ -3826,33 +6540,77 @@
         <v>47</v>
       </c>
       <c r="C48" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="D48" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
       <c r="F48">
+        <v>9</v>
+      </c>
+      <c r="G48">
+        <v>4000</v>
+      </c>
+      <c r="H48">
+        <v>0</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49" t="s">
+        <v>147</v>
+      </c>
+      <c r="D49" t="s">
+        <v>148</v>
+      </c>
+      <c r="E49" t="s">
+        <v>32</v>
+      </c>
+      <c r="F49">
+        <v>13</v>
+      </c>
+      <c r="G49">
         <v>3639</v>
       </c>
-      <c r="G48">
-        <v>302</v>
-      </c>
-      <c r="H48">
-        <v>480</v>
-      </c>
-      <c r="I48">
+      <c r="H49">
+        <v>354</v>
+      </c>
+      <c r="I49">
+        <v>560</v>
+      </c>
+      <c r="J49">
         <v>2407</v>
       </c>
-      <c r="J48">
+      <c r="K49">
         <v>369</v>
+      </c>
+      <c r="L49" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;10&amp;K000000Schlumberger-Private</oddFooter>
   </headerFooter>
